--- a/data/trans_orig/MEDIO_AMBIENTE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Edad-trans_orig.xlsx
@@ -738,97 +738,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4766</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2970</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>3789</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1420,97 +1420,97 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2857</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2414</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>2590</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -4830,12 +4830,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -4845,12 +4845,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">

--- a/data/trans_orig/MEDIO_AMBIENTE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad del medio ambiente en Andalucia</t>
+          <t>Calidad del medio ambiente en Andalucia (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MEDIO_AMBIENTE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Edad-trans_orig.xlsx
@@ -891,7 +891,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8022</t>
+          <t>10876</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>9818</t>
+          <t>8078</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16394</t>
+          <t>15543</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54023</t>
+          <t>53353</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18418</t>
+          <t>17702</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>50630</t>
+          <t>48963</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>40858</t>
+          <t>42855</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>86832</t>
+          <t>90869</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>21,61%</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>121840</t>
+          <t>122949</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>175677</t>
+          <t>175502</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,37%</t>
+          <t>74,29%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>108015</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>144704</t>
+          <t>144521</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>60,46%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>247245</t>
+          <t>244897</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>308344</t>
+          <t>307568</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>73,31%</t>
+          <t>73,13%</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34573</t>
+          <t>35385</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79914</t>
+          <t>83100</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13370</t>
+          <t>13128</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>40419</t>
+          <t>39636</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>55459</t>
+          <t>53995</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>106624</t>
+          <t>108270</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>25,74%</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13127</t>
+          <t>12685</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>2217</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14506</t>
+          <t>14635</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>4141</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>20775</t>
+          <t>20901</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,84%</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12524</t>
+          <t>12716</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36836</t>
+          <t>36541</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>13527</t>
+          <t>12889</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>45361</t>
+          <t>43821</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>31088</t>
+          <t>29598</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>69825</t>
+          <t>72659</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>13,36%</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>152418</t>
+          <t>152615</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>184811</t>
+          <t>186517</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,57%</t>
+          <t>81,32%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>216747</t>
+          <t>217412</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>277685</t>
+          <t>280606</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>68,93%</t>
+          <t>69,15%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>386246</t>
+          <t>384671</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>463289</t>
+          <t>458475</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>71,03%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>84,31%</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22439</t>
+          <t>21211</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>48221</t>
+          <t>49548</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16571</t>
+          <t>16618</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>51827</t>
+          <t>51794</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>44758</t>
+          <t>43167</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>89775</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,51%</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6253</t>
+          <t>7718</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4878</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>8837</t>
+          <t>7942</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9999</t>
+          <t>8837</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>912</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8649</t>
+          <t>7457</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2171</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>13639</t>
+          <t>13598</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17877</t>
+          <t>17294</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>38651</t>
+          <t>39455</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>27201</t>
+          <t>27263</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>46254</t>
+          <t>46593</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>48396</t>
+          <t>49780</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>76678</t>
+          <t>77382</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,25%</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>220544</t>
+          <t>218763</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>252231</t>
+          <t>249777</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>71,24%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>224176</t>
+          <t>224009</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>252404</t>
+          <t>251420</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>69,65%</t>
+          <t>69,59%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>453631</t>
+          <t>452407</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>495863</t>
+          <t>494142</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>71,84%</t>
+          <t>71,64%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>78,53%</t>
+          <t>78,25%</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>31985</t>
+          <t>31495</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>57074</t>
+          <t>58087</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2569,12 +2569,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>33768</t>
+          <t>32661</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>55828</t>
+          <t>52271</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>69978</t>
+          <t>70309</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>103492</t>
+          <t>102648</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9182</t>
+          <t>8808</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>8078</t>
+          <t>8088</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2152</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>12177</t>
+          <t>11955</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14058</t>
+          <t>14295</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>77665</t>
+          <t>76875</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>32402</t>
+          <t>33436</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>51183</t>
+          <t>52632</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>41188</t>
+          <t>39586</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>116654</t>
+          <t>117128</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,38%</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>438548</t>
+          <t>437228</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>586190</t>
+          <t>586962</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>69,88%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>302890</t>
+          <t>302978</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>328235</t>
+          <t>329084</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>75,03%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>760901</t>
+          <t>761571</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>924508</t>
+          <t>929772</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>73,98%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>90,32%</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23099</t>
+          <t>20219</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>110667</t>
+          <t>112452</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>31713</t>
+          <t>31904</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>51432</t>
+          <t>50987</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>56112</t>
+          <t>52846</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>145218</t>
+          <t>145570</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,14%</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6774</t>
+          <t>6187</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3521,42 +3521,42 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>3144</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>8189</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
           <t>1,24%</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>3144</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>976</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>7992</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
-      <c r="W28" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10356</t>
+          <t>10866</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2930</t>
+          <t>3314</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>10824</t>
+          <t>10942</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>6542</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>17729</t>
+          <t>17795</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -3692,12 +3692,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>33382</t>
+          <t>32214</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>56681</t>
+          <t>56092</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>32477</t>
+          <t>31944</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>49637</t>
+          <t>50336</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>70440</t>
+          <t>71271</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>99772</t>
+          <t>100137</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>15,18%</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>233111</t>
+          <t>236872</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>265844</t>
+          <t>267573</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>69,94%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>79,0%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>226088</t>
+          <t>226443</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>249809</t>
+          <t>250442</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>70,48%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>78,07%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>471420</t>
+          <t>472695</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>511025</t>
+          <t>511797</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>77,61%</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>25826</t>
+          <t>25505</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>48269</t>
+          <t>47520</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3933,12 +3933,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>25614</t>
+          <t>26077</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>43413</t>
+          <t>43156</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3968,12 +3968,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>56326</t>
+          <t>56431</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>83508</t>
+          <t>83847</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,71%</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>3549</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4203,42 +4203,42 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>4438</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
           <t>0,67%</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>1532</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>4511</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="W34" s="2" t="inlineStr">
-        <is>
-          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6620</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>6526</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>10261</t>
+          <t>10241</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
@@ -4374,12 +4374,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>12975</t>
+          <t>13475</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>26112</t>
+          <t>27442</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>7708</t>
+          <t>7600</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>46006</t>
+          <t>45142</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>17224</t>
+          <t>17423</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>65951</t>
+          <t>66205</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4459,12 +4459,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,05%</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>150666</t>
+          <t>150537</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>170306</t>
+          <t>169190</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>72,63%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>82,09%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>345517</t>
+          <t>345575</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>432578</t>
+          <t>430133</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>76,59%</t>
+          <t>76,61%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>503230</t>
+          <t>501663</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>612083</t>
+          <t>617849</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>76,18%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>93,82%</t>
         </is>
       </c>
     </row>
@@ -4600,12 +4600,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>16620</t>
+          <t>17409</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>31453</t>
+          <t>32799</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4615,12 +4615,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>9409</t>
+          <t>10812</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>57144</t>
+          <t>57467</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>21589</t>
+          <t>20524</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>82316</t>
+          <t>82901</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,59%</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>3196</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>3976</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>6565</t>
+          <t>6844</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>8439</t>
+          <t>8280</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>5393</t>
+          <t>5319</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>15485</t>
+          <t>14551</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>19395</t>
+          <t>18875</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>33006</t>
+          <t>33694</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -5106,12 +5106,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>27811</t>
+          <t>26968</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>44805</t>
+          <t>44134</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -5141,12 +5141,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,48%</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>113076</t>
+          <t>113930</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>130258</t>
+          <t>129979</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>74,5%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>85,64%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>162889</t>
+          <t>162877</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>182334</t>
+          <t>182055</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>78,26%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>282645</t>
+          <t>282214</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>307598</t>
+          <t>307759</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5254,12 +5254,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>80,06%</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>12564</t>
+          <t>12250</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>27613</t>
+          <t>26438</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>22784</t>
+          <t>23419</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>38380</t>
+          <t>37328</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -5332,12 +5332,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>39338</t>
+          <t>38659</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>59426</t>
+          <t>58681</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -5367,12 +5367,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,27%</t>
         </is>
       </c>
     </row>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>10241</t>
+          <t>10788</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5547,12 +5547,12 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>9050</t>
+          <t>9028</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -5582,12 +5582,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>4403</t>
+          <t>4372</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>15201</t>
+          <t>15427</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,36%</t>
         </is>
       </c>
     </row>
@@ -5625,12 +5625,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>10007</t>
+          <t>9887</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>28311</t>
+          <t>30523</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>17654</t>
+          <t>17661</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>38490</t>
+          <t>38884</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5695,12 +5695,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>32954</t>
+          <t>31860</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>60980</t>
+          <t>60210</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -5710,12 +5710,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,39%</t>
         </is>
       </c>
     </row>
@@ -5738,12 +5738,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>130583</t>
+          <t>128021</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>234179</t>
+          <t>235180</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5773,12 +5773,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>168635</t>
+          <t>160536</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>268235</t>
+          <t>265232</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -5788,12 +5788,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -5808,12 +5808,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>341081</t>
+          <t>337482</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>481004</t>
+          <t>484119</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>11,19%</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>1523385</t>
+          <t>1523029</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>1771731</t>
+          <t>1787755</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -5866,12 +5866,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>72,58%</t>
+          <t>72,57%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>84,42%</t>
+          <t>85,18%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>1668060</t>
+          <t>1662908</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>1868028</t>
+          <t>1882576</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>74,84%</t>
+          <t>74,61%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5921,12 +5921,12 @@
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>3224535</t>
+          <t>3229843</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>3526789</t>
+          <t>3548734</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
@@ -5936,12 +5936,12 @@
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>74,63%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>82,0%</t>
         </is>
       </c>
     </row>
@@ -5964,12 +5964,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>192501</t>
+          <t>171657</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>330322</t>
+          <t>330281</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -5999,12 +5999,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>171056</t>
+          <t>166443</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>272963</t>
+          <t>274322</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>412786</t>
+          <t>405348</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>579082</t>
+          <t>576979</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>13,33%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MEDIO_AMBIENTE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MEDIO_AMBIENTE-Edad-trans_orig.xlsx
@@ -881,7 +881,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10876</t>
+          <t>10169</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>8078</t>
+          <t>8104</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31022</t>
+          <t>31036</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15543</t>
+          <t>16101</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53353</t>
+          <t>50493</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30982</t>
+          <t>32938</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17702</t>
+          <t>19486</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>48963</t>
+          <t>50378</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>62004</t>
+          <t>63975</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>42855</t>
+          <t>44631</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>90869</t>
+          <t>90227</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>19,58%</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>150245</t>
+          <t>151103</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>122949</t>
+          <t>122870</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>175502</t>
+          <t>174090</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,6%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>50,93%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,29%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>128320</t>
+          <t>160610</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>142592</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>144521</t>
+          <t>177588</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>69,61%</t>
+          <t>73,12%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>60,46%</t>
+          <t>64,92%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>78,39%</t>
+          <t>80,85%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1142,32 +1142,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>278565</t>
+          <t>311713</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>244897</t>
+          <t>278351</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>307568</t>
+          <t>342974</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>66,23%</t>
+          <t>67,63%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>73,13%</t>
+          <t>74,41%</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54969</t>
+          <t>59126</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35385</t>
+          <t>40175</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83100</t>
+          <t>86073</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1220,32 +1220,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23334</t>
+          <t>24423</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13128</t>
+          <t>13468</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>39636</t>
+          <t>40929</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1255,32 +1255,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>78303</t>
+          <t>83549</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>53995</t>
+          <t>58195</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>108270</t>
+          <t>112856</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1298,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3461</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12685</t>
+          <t>13930</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1563,32 +1563,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6630</t>
+          <t>6535</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2217</t>
+          <t>2860</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14635</t>
+          <t>14306</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1598,32 +1598,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>10091</t>
+          <t>10327</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>4149</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>20901</t>
+          <t>21197</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22532</t>
+          <t>26113</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12716</t>
+          <t>15423</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36541</t>
+          <t>40660</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28472</t>
+          <t>32677</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12889</t>
+          <t>21916</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>43821</t>
+          <t>45058</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1711,32 +1711,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>51004</t>
+          <t>58790</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>29598</t>
+          <t>40819</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>72659</t>
+          <t>78949</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
@@ -1754,32 +1754,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>169695</t>
+          <t>193106</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>152615</t>
+          <t>173652</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>186517</t>
+          <t>212119</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>73,71%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,54%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>80,97%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1789,32 +1789,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>244883</t>
+          <t>203593</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>217412</t>
+          <t>186252</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>280606</t>
+          <t>219414</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>71,83%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>69,15%</t>
+          <t>65,71%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>77,41%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1824,32 +1824,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>414577</t>
+          <t>396698</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>384671</t>
+          <t>370484</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>458475</t>
+          <t>423438</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>76,24%</t>
+          <t>72,73%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>84,31%</t>
+          <t>77,63%</t>
         </is>
       </c>
     </row>
@@ -1867,32 +1867,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33680</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21211</t>
+          <t>25651</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49548</t>
+          <t>57196</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1902,32 +1902,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34444</t>
+          <t>40648</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16618</t>
+          <t>29953</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>51794</t>
+          <t>55293</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1937,32 +1937,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>68124</t>
+          <t>79611</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>43167</t>
+          <t>62589</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>89775</t>
+          <t>102174</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>18,73%</t>
         </is>
       </c>
     </row>
@@ -1980,17 +1980,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7718</t>
+          <t>7950</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3716</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
@@ -2177,12 +2177,12 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>7942</t>
+          <t>8175</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>2704</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2220,12 +2220,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8837</t>
+          <t>9025</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2245,32 +2245,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>940</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7457</t>
+          <t>7662</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2280,32 +2280,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>5967</t>
+          <t>6126</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>2171</t>
+          <t>2239</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>13598</t>
+          <t>14052</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -2323,32 +2323,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>26010</t>
+          <t>30921</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17294</t>
+          <t>20801</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39455</t>
+          <t>44580</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2358,32 +2358,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>36195</t>
+          <t>42777</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>27263</t>
+          <t>32875</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>46593</t>
+          <t>54565</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2393,32 +2393,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>62205</t>
+          <t>73698</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>49780</t>
+          <t>59391</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>77382</t>
+          <t>90368</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -2436,32 +2436,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>236215</t>
+          <t>279729</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>218763</t>
+          <t>260106</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>249777</t>
+          <t>294801</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76,3%</t>
+          <t>76,42%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>71,06%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,68%</t>
+          <t>80,53%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2471,32 +2471,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>239004</t>
+          <t>275825</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>224009</t>
+          <t>258681</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>251420</t>
+          <t>288519</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>74,25%</t>
+          <t>74,02%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>69,59%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>78,11%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2506,32 +2506,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>475218</t>
+          <t>555553</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>452407</t>
+          <t>529798</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>494142</t>
+          <t>577512</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>75,21%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
+          <t>71,72%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>78,18%</t>
         </is>
       </c>
     </row>
@@ -2549,32 +2549,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>43361</t>
+          <t>51329</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>31495</t>
+          <t>37633</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>58087</t>
+          <t>67402</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2584,32 +2584,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>42650</t>
+          <t>49882</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>32661</t>
+          <t>39086</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>52271</t>
+          <t>60686</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2619,32 +2619,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>86011</t>
+          <t>101211</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>70309</t>
+          <t>83545</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>102648</t>
+          <t>120320</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,29%</t>
         </is>
       </c>
     </row>
@@ -2662,17 +2662,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>309584</t>
+          <t>366055</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>309584</t>
+          <t>366055</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>309584</t>
+          <t>366055</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2697,17 +2697,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>321883</t>
+          <t>372639</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>321883</t>
+          <t>372639</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>321883</t>
+          <t>372639</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2732,17 +2732,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>631467</t>
+          <t>738693</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>631467</t>
+          <t>738693</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>631467</t>
+          <t>738693</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>4068</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>4340</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -2902,92 +2902,92 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8808</t>
+          <t>7763</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1424</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>8508</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>6720</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>3173</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>12188</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
           <t>0,37%</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
+      <c r="W23" s="2" t="inlineStr">
         <is>
           <t>1,41%</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>3699</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>1396</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>8088</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="O23" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>6016</t>
-        </is>
-      </c>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>11955</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
-      <c r="V23" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="W23" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -3005,32 +3005,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>42906</t>
+          <t>45432</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14295</t>
+          <t>31864</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>76875</t>
+          <t>58186</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3040,32 +3040,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>41457</t>
+          <t>46956</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>33436</t>
+          <t>37974</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>52632</t>
+          <t>58487</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3075,32 +3075,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>84363</t>
+          <t>92388</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>39586</t>
+          <t>76512</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>117128</t>
+          <t>109117</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -3118,32 +3118,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>516560</t>
+          <t>304222</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>437228</t>
+          <t>283409</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>586962</t>
+          <t>324870</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>72,0%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>67,08%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>76,89%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3153,32 +3153,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>316276</t>
+          <t>342025</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>302978</t>
+          <t>327061</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>329084</t>
+          <t>355842</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>81,52%</t>
+          <t>80,84%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3188,32 +3188,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>832836</t>
+          <t>646247</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>761571</t>
+          <t>622147</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>929772</t>
+          <t>671462</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>72,12%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>77,84%</t>
         </is>
       </c>
     </row>
@@ -3231,32 +3231,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>63924</t>
+          <t>70396</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>20219</t>
+          <t>55215</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>112452</t>
+          <t>88590</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3266,32 +3266,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>40912</t>
+          <t>45554</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>31904</t>
+          <t>36431</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>50987</t>
+          <t>56763</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3301,32 +3301,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>104836</t>
+          <t>115949</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>52846</t>
+          <t>97971</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>145570</t>
+          <t>138488</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>16,05%</t>
         </is>
       </c>
     </row>
@@ -3344,17 +3344,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>625708</t>
+          <t>422505</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>625708</t>
+          <t>422505</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>625708</t>
+          <t>422505</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3379,17 +3379,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>403671</t>
+          <t>440160</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>403671</t>
+          <t>440160</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>403671</t>
+          <t>440160</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1029379</t>
+          <t>862665</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1029379</t>
+          <t>862665</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1029379</t>
+          <t>862665</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6187</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>4291</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3531,32 +3531,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>946</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>8189</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -3574,32 +3574,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5056</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10866</t>
+          <t>10940</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3609,32 +3609,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6149</t>
+          <t>7136</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>10942</t>
+          <t>12486</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3644,32 +3644,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>11205</t>
+          <t>12148</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>6542</t>
+          <t>7295</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>17795</t>
+          <t>19074</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -3687,32 +3687,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>43348</t>
+          <t>45567</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>32214</t>
+          <t>34444</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>56092</t>
+          <t>58346</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3722,32 +3722,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>41127</t>
+          <t>46111</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>31944</t>
+          <t>36290</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>50336</t>
+          <t>56200</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3757,32 +3757,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>84474</t>
+          <t>91678</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>71271</t>
+          <t>77904</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>100137</t>
+          <t>108958</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>14,96%</t>
         </is>
       </c>
     </row>
@@ -3800,32 +3800,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>252720</t>
+          <t>275171</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>236872</t>
+          <t>257889</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>267573</t>
+          <t>289959</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>74,85%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>69,94%</t>
+          <t>70,15%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>79,0%</t>
+          <t>78,87%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3835,32 +3835,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>238575</t>
+          <t>268925</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>226443</t>
+          <t>255876</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>250442</t>
+          <t>282161</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>74,37%</t>
+          <t>74,6%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>70,98%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>78,07%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3870,32 +3870,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>491295</t>
+          <t>544096</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>472695</t>
+          <t>522371</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>511797</t>
+          <t>564742</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>74,5%</t>
+          <t>74,72%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>77,56%</t>
         </is>
       </c>
     </row>
@@ -3913,32 +3913,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>35631</t>
+          <t>39902</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>25505</t>
+          <t>29171</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>47520</t>
+          <t>52485</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3948,32 +3948,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>33729</t>
+          <t>37045</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>26077</t>
+          <t>28641</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>43156</t>
+          <t>47403</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3983,32 +3983,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>69360</t>
+          <t>76946</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>56431</t>
+          <t>62904</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>83847</t>
+          <t>93020</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,77%</t>
         </is>
       </c>
     </row>
@@ -4026,17 +4026,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>338700</t>
+          <t>367643</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>338700</t>
+          <t>367643</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>338700</t>
+          <t>367643</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4061,17 +4061,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>320779</t>
+          <t>360502</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>320779</t>
+          <t>360502</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>320779</t>
+          <t>360502</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4096,17 +4096,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>659479</t>
+          <t>728145</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>659479</t>
+          <t>728145</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>659479</t>
+          <t>728145</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>810</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -4153,92 +4153,92 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>3276</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>3063</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>1675</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>5067</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
           <t>0,34%</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>816</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>3671</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>1532</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>4438</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -4256,32 +4256,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>3143</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1486</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4291,32 +4291,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>2403</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>863</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>6526</t>
+          <t>5640</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4326,32 +4326,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>5546</t>
+          <t>6456</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>10241</t>
+          <t>11639</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>19338</t>
+          <t>21402</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>13475</t>
+          <t>14771</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>27442</t>
+          <t>29696</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4404,32 +4404,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>23248</t>
+          <t>25350</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>7600</t>
+          <t>18857</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>45142</t>
+          <t>32210</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4439,32 +4439,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>42586</t>
+          <t>46752</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>17423</t>
+          <t>37522</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>66205</t>
+          <t>58300</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>11,69%</t>
         </is>
       </c>
     </row>
@@ -4482,32 +4482,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>160529</t>
+          <t>177460</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>150537</t>
+          <t>166612</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>169190</t>
+          <t>187937</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>77,38%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>81,48%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4517,32 +4517,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>395115</t>
+          <t>205375</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>345575</t>
+          <t>194798</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>430133</t>
+          <t>215264</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>76,65%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4552,32 +4552,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>555644</t>
+          <t>382835</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>501663</t>
+          <t>367170</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>617849</t>
+          <t>397247</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>76,18%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>79,67%</t>
         </is>
       </c>
     </row>
@@ -4595,32 +4595,32 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>23726</t>
+          <t>27031</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>17409</t>
+          <t>19749</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>32799</t>
+          <t>36848</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4630,32 +4630,32 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>29522</t>
+          <t>33865</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>10812</t>
+          <t>26112</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>57467</t>
+          <t>42821</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4665,32 +4665,32 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>53248</t>
+          <t>60896</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>20524</t>
+          <t>49694</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>82901</t>
+          <t>72950</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>14,63%</t>
         </is>
       </c>
     </row>
@@ -4708,17 +4708,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>207452</t>
+          <t>230663</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>207452</t>
+          <t>230663</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>207452</t>
+          <t>230663</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4743,17 +4743,17 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>451104</t>
+          <t>267950</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>451104</t>
+          <t>267950</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>451104</t>
+          <t>267950</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4778,17 +4778,17 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>658556</t>
+          <t>498613</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>658556</t>
+          <t>498613</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>658556</t>
+          <t>498613</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>655</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>655</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
@@ -4948,12 +4948,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4973,32 +4973,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>3419</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1475</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>6844</t>
+          <t>7260</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5008,32 +5008,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>4796</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2273</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>8280</t>
+          <t>8810</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -5051,32 +5051,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>9420</t>
+          <t>10055</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>5319</t>
+          <t>5707</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>14551</t>
+          <t>15694</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5086,32 +5086,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>25702</t>
+          <t>27789</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>18875</t>
+          <t>20544</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>33694</t>
+          <t>36540</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5121,32 +5121,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>35122</t>
+          <t>37844</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>26968</t>
+          <t>28834</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>44134</t>
+          <t>47734</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -5164,32 +5164,32 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>122598</t>
+          <t>133977</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>113930</t>
+          <t>124359</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>129979</t>
+          <t>142026</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>85,64%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5199,32 +5199,32 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>173029</t>
+          <t>191056</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>162877</t>
+          <t>179797</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>182055</t>
+          <t>200639</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>74,38%</t>
+          <t>74,76%</t>
         </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>70,02%</t>
+          <t>70,35%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>78,26%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5234,32 +5234,32 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>295627</t>
+          <t>325033</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>282214</t>
+          <t>310819</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>307759</t>
+          <t>338624</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>77,18%</t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>73,42%</t>
+          <t>73,8%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>80,41%</t>
         </is>
       </c>
     </row>
@@ -5277,32 +5277,32 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>18627</t>
+          <t>20392</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>12250</t>
+          <t>13343</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>26438</t>
+          <t>28928</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5312,32 +5312,32 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>29859</t>
+          <t>32426</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>23419</t>
+          <t>25593</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>37328</t>
+          <t>40468</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5347,32 +5347,32 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>48486</t>
+          <t>52817</t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>38659</t>
+          <t>42193</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>58681</t>
+          <t>63909</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,18%</t>
         </is>
       </c>
     </row>
@@ -5390,17 +5390,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5425,17 +5425,17 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>232623</t>
+          <t>255564</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>232623</t>
+          <t>255564</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>232623</t>
+          <t>255564</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5460,17 +5460,17 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>384398</t>
+          <t>421145</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>384398</t>
+          <t>421145</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>384398</t>
+          <t>421145</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -5507,22 +5507,22 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>976</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>10788</t>
+          <t>10831</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5542,67 +5542,67 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>4896</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>2165</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>9028</t>
+          <t>9022</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>9070</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>4898</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>16219</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
           <t>0,21%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0,09%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>8683</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>4372</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>15427</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -5620,32 +5620,32 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>17773</t>
+          <t>19079</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>9887</t>
+          <t>12125</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>30523</t>
+          <t>31270</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5655,32 +5655,32 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>27318</t>
+          <t>29177</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>17661</t>
+          <t>20711</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>38884</t>
+          <t>39748</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5690,32 +5690,32 @@
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>45091</t>
+          <t>48256</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>31860</t>
+          <t>35933</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>60210</t>
+          <t>63097</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -5733,32 +5733,32 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>194576</t>
+          <t>210526</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>128021</t>
+          <t>179600</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>235180</t>
+          <t>246007</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5768,32 +5768,32 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>227183</t>
+          <t>254598</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>160536</t>
+          <t>227879</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>265232</t>
+          <t>284624</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -5803,32 +5803,32 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>421759</t>
+          <t>465125</t>
         </is>
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>337482</t>
+          <t>426057</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>484119</t>
+          <t>508849</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -5846,32 +5846,32 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>1608562</t>
+          <t>1514768</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>1523029</t>
+          <t>1462594</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>1787755</t>
+          <t>1557888</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>76,64%</t>
+          <t>73,69%</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>72,57%</t>
+          <t>71,15%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5881,32 +5881,32 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>1735202</t>
+          <t>1647409</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>1662908</t>
+          <t>1605457</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>1882576</t>
+          <t>1681855</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>72,98%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>84,46%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5916,32 +5916,32 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>3343763</t>
+          <t>3162176</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>3229843</t>
+          <t>3100642</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>3548734</t>
+          <t>3215085</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>77,26%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>74,63%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>75,55%</t>
         </is>
       </c>
     </row>
@@ -5959,32 +5959,32 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>273918</t>
+          <t>307138</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>171657</t>
+          <t>272066</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>330281</t>
+          <t>354363</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -5994,32 +5994,32 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>234450</t>
+          <t>263843</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>166443</t>
+          <t>236697</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>274322</t>
+          <t>292544</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -6029,32 +6029,32 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>508368</t>
+          <t>570981</t>
         </is>
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>405348</t>
+          <t>527842</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>576979</t>
+          <t>624966</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>14,69%</t>
         </is>
       </c>
     </row>
@@ -6072,17 +6072,17 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>2098823</t>
+          <t>2055685</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>2098823</t>
+          <t>2055685</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>2098823</t>
+          <t>2055685</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -6107,17 +6107,17 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>2228841</t>
+          <t>2199923</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>2228841</t>
+          <t>2199923</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>2228841</t>
+          <t>2199923</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -6142,17 +6142,17 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>4327664</t>
+          <t>4255608</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>4327664</t>
+          <t>4255608</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>4327664</t>
+          <t>4255608</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
